--- a/Export/Model-Perf_Summary_v2.xlsx
+++ b/Export/Model-Perf_Summary_v2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Model</t>
   </si>
@@ -58,46 +58,43 @@
     <t>GaussianNB</t>
   </si>
   <si>
-    <t>Voting Classifier -- Second Eval -- top 3 recall:rf,cTree,gnb</t>
-  </si>
-  <si>
-    <t>Voting Classifier -- Second Eval -- Just CF/RF</t>
-  </si>
-  <si>
-    <t>[[38 21]
+    <t>Voting Classifier -- Second Eval --  RF/GNB</t>
+  </si>
+  <si>
+    <t>[[46 13]
+ [ 7  4]]</t>
+  </si>
+  <si>
+    <t>[[52  7]
+ [ 9  2]]</t>
+  </si>
+  <si>
+    <t>[[42 17]
+ [ 8  3]]</t>
+  </si>
+  <si>
+    <t>[[42 17]
  [ 6  5]]</t>
   </si>
   <si>
-    <t>[[53  6]
- [10  1]]</t>
-  </si>
-  <si>
-    <t>[[42 17]
- [ 9  2]]</t>
-  </si>
-  <si>
-    <t>[[37 22]
- [ 6  5]]</t>
-  </si>
-  <si>
-    <t>[[48 11]
+    <t>[[52  7]
  [11  0]]</t>
   </si>
   <si>
+    <t>[[47 12]
+ [ 7  4]]</t>
+  </si>
+  <si>
     <t>[[43 16]
- [ 9  2]]</t>
-  </si>
-  <si>
-    <t>[[51  8]
- [11  0]]</t>
-  </si>
-  <si>
-    <t>[[47 12]
- [ 8  3]]</t>
-  </si>
-  <si>
-    <t>[[41 18]
- [ 6  5]]</t>
+ [ 7  4]]</t>
+  </si>
+  <si>
+    <t>[[20 39]
+ [ 2  9]]</t>
+  </si>
+  <si>
+    <t>[[23 36]
+ [ 2  9]]</t>
   </si>
 </sst>
 </file>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -489,19 +486,19 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.6143</v>
+        <v>0.7143</v>
       </c>
       <c r="D2">
-        <v>0.1923</v>
+        <v>0.2353</v>
       </c>
       <c r="E2">
-        <v>0.4545</v>
+        <v>0.3636</v>
       </c>
       <c r="F2">
-        <v>0.2703</v>
+        <v>0.2857</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -515,16 +512,16 @@
         <v>0.7714</v>
       </c>
       <c r="D3">
-        <v>0.1429</v>
+        <v>0.2222</v>
       </c>
       <c r="E3">
-        <v>0.09089999999999999</v>
+        <v>0.1818</v>
       </c>
       <c r="F3">
-        <v>0.1111</v>
+        <v>0.2</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -535,19 +532,19 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0.6286</v>
+        <v>0.6429</v>
       </c>
       <c r="D4">
-        <v>0.1053</v>
+        <v>0.15</v>
       </c>
       <c r="E4">
-        <v>0.1818</v>
+        <v>0.2727</v>
       </c>
       <c r="F4">
-        <v>0.1333</v>
+        <v>0.1935</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -558,19 +555,19 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>0.6</v>
+        <v>0.6714</v>
       </c>
       <c r="D5">
-        <v>0.1852</v>
+        <v>0.2273</v>
       </c>
       <c r="E5">
         <v>0.4545</v>
       </c>
       <c r="F5">
-        <v>0.2632</v>
+        <v>0.303</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -581,7 +578,7 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>0.6857</v>
+        <v>0.7429</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -593,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -604,19 +601,19 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>0.6429</v>
+        <v>0.7286</v>
       </c>
       <c r="D7">
-        <v>0.1111</v>
+        <v>0.25</v>
       </c>
       <c r="E7">
-        <v>0.1818</v>
+        <v>0.3636</v>
       </c>
       <c r="F7">
-        <v>0.1379</v>
+        <v>0.2963</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -627,19 +624,19 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>0.6</v>
+        <v>0.6714</v>
       </c>
       <c r="D8">
-        <v>0.1852</v>
+        <v>0.2</v>
       </c>
       <c r="E8">
-        <v>0.4545</v>
+        <v>0.3636</v>
       </c>
       <c r="F8">
-        <v>0.2632</v>
+        <v>0.2581</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -650,16 +647,16 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>0.7286</v>
+        <v>0.4143</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.8182</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.3051</v>
       </c>
       <c r="G9" t="s">
         <v>22</v>
@@ -673,42 +670,19 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>0.7143</v>
+        <v>0.4571</v>
       </c>
       <c r="D10">
         <v>0.2</v>
       </c>
       <c r="E10">
-        <v>0.2727</v>
+        <v>0.8182</v>
       </c>
       <c r="F10">
-        <v>0.2308</v>
+        <v>0.3214</v>
       </c>
       <c r="G10" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11">
-        <v>0.6571</v>
-      </c>
-      <c r="D11">
-        <v>0.2174</v>
-      </c>
-      <c r="E11">
-        <v>0.4545</v>
-      </c>
-      <c r="F11">
-        <v>0.2941</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Export/Model-Perf_Summary_v2.xlsx
+++ b/Export/Model-Perf_Summary_v2.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cdc4f9836624c718/Documents/Grad-School-Docs/CapstoneProject/Repo/Export/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_E636DEDC97D9AECF8A160BD313CD6CF45AA0A5CD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{096B6BCD-5BC4-4728-BDE6-6FA767F91416}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Model</t>
   </si>
@@ -58,10 +64,19 @@
     <t>GaussianNB</t>
   </si>
   <si>
-    <t>Voting Classifier -- Second Eval --  RF/GNB</t>
-  </si>
-  <si>
-    <t>[[46 13]
+    <t>Voting Classifier -- Second Eval --  RF(3)/GNB(1)/LDA(2)</t>
+  </si>
+  <si>
+    <t>Logistic Regression -- Third Eval</t>
+  </si>
+  <si>
+    <t>Random Forest -- Third Eval - w/oFeatures&lt;0.1 -- Recall Tuning from Round 2</t>
+  </si>
+  <si>
+    <t>Voting Classifier -- Final Eval --  RF3/LR3/GNB1</t>
+  </si>
+  <si>
+    <t>[[47 12]
  [ 7  4]]</t>
   </si>
   <si>
@@ -69,39 +84,47 @@
  [ 9  2]]</t>
   </si>
   <si>
-    <t>[[42 17]
- [ 8  3]]</t>
-  </si>
-  <si>
-    <t>[[42 17]
- [ 6  5]]</t>
-  </si>
-  <si>
-    <t>[[52  7]
- [11  0]]</t>
-  </si>
-  <si>
-    <t>[[47 12]
- [ 7  4]]</t>
-  </si>
-  <si>
-    <t>[[43 16]
- [ 7  4]]</t>
-  </si>
-  <si>
-    <t>[[20 39]
- [ 2  9]]</t>
-  </si>
-  <si>
-    <t>[[23 36]
- [ 2  9]]</t>
+    <t>[[38 20]
+ [ 7  5]]</t>
+  </si>
+  <si>
+    <t>[[36 22]
+ [ 7  5]]</t>
+  </si>
+  <si>
+    <t>[[51  7]
+ [10  2]]</t>
+  </si>
+  <si>
+    <t>[[44 14]
+ [ 8  4]]</t>
+  </si>
+  <si>
+    <t>[[41 17]
+ [ 9  3]]</t>
+  </si>
+  <si>
+    <t>[[16 42]
+ [ 3  9]]</t>
+  </si>
+  <si>
+    <t>[[30 28]
+ [ 5  7]]</t>
+  </si>
+  <si>
+    <t>[[33 25]
+ [ 7  5]]</t>
+  </si>
+  <si>
+    <t>[[33 25]
+ [ 5  7]]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +187,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -210,7 +241,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -242,9 +273,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -276,6 +325,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -451,14 +518,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="64.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,7 +548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -486,22 +556,22 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.7143</v>
+        <v>0.72860000000000003</v>
       </c>
       <c r="D2">
-        <v>0.2353</v>
+        <v>0.25</v>
       </c>
       <c r="E2">
-        <v>0.3636</v>
+        <v>0.36359999999999998</v>
       </c>
       <c r="F2">
-        <v>0.2857</v>
+        <v>0.29630000000000001</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -509,22 +579,22 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.7714</v>
+        <v>0.77139999999999997</v>
       </c>
       <c r="D3">
-        <v>0.2222</v>
+        <v>0.22220000000000001</v>
       </c>
       <c r="E3">
-        <v>0.1818</v>
+        <v>0.18179999999999999</v>
       </c>
       <c r="F3">
         <v>0.2</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -532,22 +602,22 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0.6429</v>
+        <v>0.61429999999999996</v>
       </c>
       <c r="D4">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="E4">
-        <v>0.2727</v>
+        <v>0.41670000000000001</v>
       </c>
       <c r="F4">
-        <v>0.1935</v>
+        <v>0.27029999999999998</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -555,22 +625,22 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>0.6714</v>
+        <v>0.5857</v>
       </c>
       <c r="D5">
-        <v>0.2273</v>
+        <v>0.1852</v>
       </c>
       <c r="E5">
-        <v>0.4545</v>
+        <v>0.41670000000000001</v>
       </c>
       <c r="F5">
-        <v>0.303</v>
+        <v>0.25640000000000002</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -578,22 +648,22 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>0.7429</v>
+        <v>0.7571</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.22220000000000001</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.1905</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -601,22 +671,22 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>0.7286</v>
+        <v>0.68569999999999998</v>
       </c>
       <c r="D7">
-        <v>0.25</v>
+        <v>0.22220000000000001</v>
       </c>
       <c r="E7">
-        <v>0.3636</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F7">
-        <v>0.2963</v>
+        <v>0.26669999999999999</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -624,22 +694,22 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>0.6714</v>
+        <v>0.62860000000000005</v>
       </c>
       <c r="D8">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="E8">
-        <v>0.3636</v>
+        <v>0.25</v>
       </c>
       <c r="F8">
-        <v>0.2581</v>
+        <v>0.1875</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -647,22 +717,22 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>0.4143</v>
+        <v>0.35709999999999997</v>
       </c>
       <c r="D9">
-        <v>0.1875</v>
+        <v>0.17649999999999999</v>
       </c>
       <c r="E9">
-        <v>0.8182</v>
+        <v>0.75</v>
       </c>
       <c r="F9">
-        <v>0.3051</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -670,19 +740,88 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>0.4571</v>
+        <v>0.52859999999999996</v>
       </c>
       <c r="D10">
         <v>0.2</v>
       </c>
       <c r="E10">
-        <v>0.8182</v>
+        <v>0.58330000000000004</v>
       </c>
       <c r="F10">
-        <v>0.3214</v>
+        <v>0.2979</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>0.54290000000000005</v>
+      </c>
+      <c r="D11">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="E11">
+        <v>0.41670000000000001</v>
+      </c>
+      <c r="F11">
+        <v>0.23810000000000001</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>0.54290000000000005</v>
+      </c>
+      <c r="D12">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="E12">
+        <v>0.41670000000000001</v>
+      </c>
+      <c r="F12">
+        <v>0.23810000000000001</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>0.57140000000000002</v>
+      </c>
+      <c r="D13">
+        <v>0.21879999999999999</v>
+      </c>
+      <c r="E13">
+        <v>0.58330000000000004</v>
+      </c>
+      <c r="F13">
+        <v>0.31819999999999998</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
